--- a/Requirements.xlsx
+++ b/Requirements.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18780" windowHeight="14740" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18780" windowHeight="14745" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="227">
   <si>
     <t>REQ NR</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Das eigene Profil wird angezeigt</t>
   </si>
   <si>
-    <t>Follower anzeigen</t>
-  </si>
-  <si>
     <t>Anzeigen einer Liste von Personen denen der Nutzer selbst folgt</t>
   </si>
   <si>
@@ -75,9 +72,6 @@
     <t>Es wird eine Liste von Nutzer angezeigt, die dem Nutzer selbst folgen</t>
   </si>
   <si>
-    <t>Posts anzeigen</t>
-  </si>
-  <si>
     <t>Anzeigen aller eigenen Posts</t>
   </si>
   <si>
@@ -87,9 +81,6 @@
     <t>Alle vom Nutzer verfassten Posts werden angezeigt</t>
   </si>
   <si>
-    <t>Post löschen</t>
-  </si>
-  <si>
     <t>Entfernen eines Posts</t>
   </si>
   <si>
@@ -102,9 +93,6 @@
     <t>Der Post ist nicht mehr im Verlauf des Nutzers</t>
   </si>
   <si>
-    <t>Profil bearbeiten</t>
-  </si>
-  <si>
     <t>Passwort ändern</t>
   </si>
   <si>
@@ -141,9 +129,6 @@
     <t>Das gewünschte Profil wird angezeigt</t>
   </si>
   <si>
-    <t>Nutzer folgen</t>
-  </si>
-  <si>
     <t>Nutzer sollen anderen Nutzern folgen können und deren Posts in ihrer Timeline angezeigt bekommen</t>
   </si>
   <si>
@@ -174,12 +159,6 @@
     <t>Es wird eine Liste von Nutzer angezeigt, die dem Nutzer folgen</t>
   </si>
   <si>
-    <t>Eigenes Profil anzeigen</t>
-  </si>
-  <si>
-    <t>Fremdes Profil anzeigen</t>
-  </si>
-  <si>
     <t>Datenbankmanagement</t>
   </si>
   <si>
@@ -718,6 +697,9 @@
   </si>
   <si>
     <t>#R0046</t>
+  </si>
+  <si>
+    <t>Profil</t>
   </si>
 </sst>
 </file>
@@ -763,7 +745,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -776,69 +758,6 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -850,19 +769,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -886,17 +792,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color indexed="8"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right style="hair">
-        <color indexed="8"/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
-      <top style="hair">
-        <color indexed="8"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="hair">
-        <color indexed="8"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -910,44 +843,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1275,971 +1208,1004 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A47"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="37.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="37.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
-    <col min="3" max="5" width="70.83203125" customWidth="1"/>
-    <col min="6" max="6" width="89.83203125" customWidth="1"/>
-    <col min="7" max="7" width="14.1640625" customWidth="1"/>
+    <col min="1" max="1" width="10.875" customWidth="1"/>
+    <col min="3" max="5" width="70.875" customWidth="1"/>
+    <col min="6" max="6" width="89.875" customWidth="1"/>
+    <col min="7" max="7" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16" thickBot="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="5" t="s">
+      <c r="B9" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="5" t="s">
+      <c r="B10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="5" t="s">
+      <c r="B11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="5" t="s">
+      <c r="B12" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="5" t="s">
+      <c r="B13" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="5" t="s">
+      <c r="B14" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="5" t="s">
+      <c r="B15" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="F9" s="14" t="s">
+      <c r="B16" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="14" t="s">
+      <c r="C25" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" s="14" t="s">
+      <c r="D25" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="E25" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="14" t="s">
+      <c r="F25" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="E11" s="14" t="s">
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="C26" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="D26" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G40" s="3"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G41" s="3"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="7" t="s">
+      <c r="E43" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E44" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="13"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="B25" t="s">
-        <v>91</v>
-      </c>
-      <c r="C25" t="s">
-        <v>92</v>
-      </c>
-      <c r="D25" t="s">
-        <v>93</v>
-      </c>
-      <c r="E25" t="s">
-        <v>94</v>
-      </c>
-      <c r="F25" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="B26" t="s">
-        <v>96</v>
-      </c>
-      <c r="C26" t="s">
-        <v>97</v>
-      </c>
-      <c r="D26" t="s">
-        <v>98</v>
-      </c>
-      <c r="E26" t="s">
-        <v>99</v>
-      </c>
-      <c r="F26" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="B27" t="s">
-        <v>96</v>
-      </c>
-      <c r="C27" t="s">
-        <v>101</v>
-      </c>
-      <c r="D27" t="s">
-        <v>102</v>
-      </c>
-      <c r="E27" t="s">
-        <v>103</v>
-      </c>
-      <c r="F27" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="B28" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" t="s">
-        <v>105</v>
-      </c>
-      <c r="D28" t="s">
-        <v>106</v>
-      </c>
-      <c r="E28" t="s">
-        <v>107</v>
-      </c>
-      <c r="F28" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="B29" t="s">
-        <v>108</v>
-      </c>
-      <c r="C29" t="s">
-        <v>109</v>
-      </c>
-      <c r="D29" t="s">
-        <v>110</v>
-      </c>
-      <c r="E29" t="s">
-        <v>111</v>
-      </c>
-      <c r="F29" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="B30" t="s">
-        <v>108</v>
-      </c>
-      <c r="C30" t="s">
-        <v>113</v>
-      </c>
-      <c r="D30" t="s">
-        <v>114</v>
-      </c>
-      <c r="E30" t="s">
-        <v>115</v>
-      </c>
-      <c r="F30" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="B31" t="s">
-        <v>108</v>
-      </c>
-      <c r="C31" t="s">
-        <v>117</v>
-      </c>
-      <c r="D31" t="s">
-        <v>118</v>
-      </c>
-      <c r="E31" t="s">
-        <v>119</v>
-      </c>
-      <c r="F31" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="B32" t="s">
-        <v>91</v>
-      </c>
-      <c r="C32" t="s">
-        <v>121</v>
-      </c>
-      <c r="D32" t="s">
-        <v>122</v>
-      </c>
-      <c r="E32" t="s">
-        <v>123</v>
-      </c>
-      <c r="F32" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="B33" t="s">
-        <v>125</v>
-      </c>
-      <c r="C33" t="s">
-        <v>126</v>
-      </c>
-      <c r="D33" t="s">
-        <v>127</v>
-      </c>
-      <c r="E33" t="s">
-        <v>128</v>
-      </c>
-      <c r="F33" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="B34" t="s">
-        <v>125</v>
-      </c>
-      <c r="C34" t="s">
-        <v>130</v>
-      </c>
-      <c r="D34" t="s">
-        <v>131</v>
-      </c>
-      <c r="E34" t="s">
-        <v>132</v>
-      </c>
-      <c r="F34" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="B35" t="s">
-        <v>125</v>
-      </c>
-      <c r="C35" t="s">
-        <v>134</v>
-      </c>
-      <c r="D35" t="s">
-        <v>135</v>
-      </c>
-      <c r="E35" t="s">
-        <v>136</v>
-      </c>
-      <c r="F35" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="B36" t="s">
-        <v>91</v>
-      </c>
-      <c r="C36" t="s">
-        <v>138</v>
-      </c>
-      <c r="D36" t="s">
-        <v>139</v>
-      </c>
-      <c r="E36" t="s">
-        <v>140</v>
-      </c>
-      <c r="F36" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="B37" t="s">
-        <v>142</v>
-      </c>
-      <c r="C37" t="s">
-        <v>143</v>
-      </c>
-      <c r="D37" t="s">
-        <v>144</v>
-      </c>
-      <c r="E37" t="s">
-        <v>145</v>
-      </c>
-      <c r="F37" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="5" t="s">
+      <c r="F44" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G44" s="3"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B38" t="s">
-        <v>142</v>
-      </c>
-      <c r="C38" t="s">
-        <v>147</v>
-      </c>
-      <c r="D38" t="s">
-        <v>148</v>
-      </c>
-      <c r="E38" t="s">
-        <v>149</v>
-      </c>
-      <c r="F38" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="5" t="s">
+      <c r="B45" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G45" s="3"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B39" t="s">
-        <v>142</v>
-      </c>
-      <c r="C39" t="s">
-        <v>151</v>
-      </c>
-      <c r="D39" t="s">
-        <v>152</v>
-      </c>
-      <c r="E39" t="s">
-        <v>153</v>
-      </c>
-      <c r="F39" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="5" t="s">
+      <c r="B46" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G46" s="3"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="B40" t="s">
-        <v>142</v>
-      </c>
-      <c r="C40" t="s">
-        <v>155</v>
-      </c>
-      <c r="D40" t="s">
-        <v>156</v>
-      </c>
-      <c r="E40" t="s">
-        <v>157</v>
-      </c>
-      <c r="F40" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="B41" t="s">
-        <v>142</v>
-      </c>
-      <c r="C41" t="s">
-        <v>159</v>
-      </c>
-      <c r="D41" t="s">
-        <v>160</v>
-      </c>
-      <c r="E41" t="s">
-        <v>161</v>
-      </c>
-      <c r="F41" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="B42" t="s">
-        <v>142</v>
-      </c>
-      <c r="C42" t="s">
-        <v>163</v>
-      </c>
-      <c r="D42" t="s">
-        <v>164</v>
-      </c>
-      <c r="E42" t="s">
-        <v>165</v>
-      </c>
-      <c r="F42" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="C43" s="7" t="s">
+      <c r="B47" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="D43" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="C45" s="7" t="s">
+      <c r="C47" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D47" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E47" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="F45" s="6" t="s">
+      <c r="F47" s="5" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>186</v>
-      </c>
+      <c r="G47" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
